--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA99A03-B2E9-43CC-98D9-0D2613F50E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -986,7 +987,132 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:InsuTypeCode
+    <t>火險單年月</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndoInsuNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotiTempFg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NotiTempFg = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuYearMonth</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuYearMonth Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:已入
+N:未入(通知作業後新增)
+null:待通知</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrigInsuNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenewCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuEndDate Desc,OrigInsuNo Asc,EndoInsuNo Asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuEndDateRange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustEq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND NowInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findNotiTempFgFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPrevInsuNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND PrevInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuEndDate Desc,InsuStartDate ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevInsuNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND PrevInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND NowInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND NowInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findNowInsuNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findNowInsuNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuEndDate Desc,InsuStartDate ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuEndDate Desc,InsuStartDate ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommericalFlag</t>
+  </si>
+  <si>
+    <t>住宅險改商業險註記</t>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.
+1:自保
+2:續保</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.InsuTypeCode
 01:住宅火險地震險
 02:火險
 03:地震險
@@ -997,7 +1123,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:RepayCode
+    <t>CdCode.RepayCode
 1:匯款轉帳
 2:銀行扣款
 3:員工扣薪
@@ -1008,136 +1134,11 @@
 8:劃撥存款</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
-  <si>
-    <t>火險單年月</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndoInsuNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotiTempFg</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NotiTempFg = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuYearMonth</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuYearMonth Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:已入
-N:未入(通知作業後新增)
-null:待通知</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.
-1.自保
-2.續保</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrigInsuNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>RenewCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuEndDate Desc,OrigInsuNo Asc,EndoInsuNo Asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>insuEndDateRange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCustEq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND NowInsuNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findNotiTempFgFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findPrevInsuNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND PrevInsuNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuEndDate Desc,InsuStartDate ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prevInsuNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND PrevInsuNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND NowInsuNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND NowInsuNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findNowInsuNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findNowInsuNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuEndDate Desc,InsuStartDate ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuEndDate Desc,InsuStartDate ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommericalFlag</t>
-  </si>
-  <si>
-    <t>住宅險改商業險註記</t>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -1448,7 +1449,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1539,6 +1540,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1574,6 +1592,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1749,11 +1784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1986,7 +2021,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>131</v>
@@ -2006,10 +2041,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>49</v>
@@ -2080,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>31</v>
@@ -2098,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>32</v>
@@ -2110,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2148,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="145.80000000000001">
@@ -2168,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2358,7 +2393,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>88</v>
@@ -2370,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="64.8">
@@ -2434,10 +2469,10 @@
         <v>29</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>46</v>
@@ -2452,10 +2487,10 @@
         <v>30</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>46</v>
@@ -2584,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2756,21 +2791,21 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>135</v>
@@ -2825,7 +2860,7 @@
         <v>134</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>135</v>
@@ -2833,10 +2868,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>135</v>
@@ -2844,46 +2879,46 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +2929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
